--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48509\Desktop\Zastosowanie AI\Repo Gazele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73516007-05D8-4A97-8C21-C79593EB4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087646E-2FD3-490A-B34E-322B612436D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{594026F3-9666-46F9-9EF9-0EF1D9046396}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="340">
   <si>
     <t>rastrigin</t>
   </si>
@@ -1697,6 +1697,9 @@
   </si>
   <si>
     <t>Wskaźnik zmienności (%)</t>
+  </si>
+  <si>
+    <t>Odchylenie standardowe wartości funkcji celu</t>
   </si>
 </sst>
 </file>
@@ -2078,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD025BA-8EB0-4B66-BCC2-7D58227124C8}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2097,9 +2100,10 @@
     <col min="9" max="9" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.36328125" customWidth="1"/>
     <col min="11" max="11" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>328</v>
       </c>
@@ -2130,11 +2134,15 @@
       <c r="J1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2165,11 +2173,14 @@
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
+        <v>48.915031447700777</v>
+      </c>
+      <c r="L2" s="3">
         <v>13.02762231801967</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2200,11 +2211,14 @@
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
+        <v>40.527459769287397</v>
+      </c>
+      <c r="L3" s="3">
         <v>13.34543687790123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2235,11 +2249,14 @@
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
+        <v>29.93862249567384</v>
+      </c>
+      <c r="L4" s="3">
         <v>23.177670964941189</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2270,11 +2287,14 @@
       <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
+        <v>30.39294922356887</v>
+      </c>
+      <c r="L5" s="3">
         <v>35.098223830859219</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2305,11 +2325,14 @@
       <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
+        <v>34.932608168935872</v>
+      </c>
+      <c r="L6" s="3">
         <v>167.92386335074161</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2340,11 +2363,14 @@
       <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
+        <v>51.720282692707201</v>
+      </c>
+      <c r="L7" s="3">
         <v>5.6418615362170206</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2375,11 +2401,14 @@
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
+        <v>43.186997462157287</v>
+      </c>
+      <c r="L8" s="3">
         <v>14.66580691357866</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -2410,11 +2439,14 @@
       <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
+        <v>56.792678233844867</v>
+      </c>
+      <c r="L9" s="3">
         <v>26.808464539413109</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -2445,11 +2477,14 @@
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
+        <v>41.879573905989389</v>
+      </c>
+      <c r="L10" s="3">
         <v>35.6409923366963</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -2480,11 +2515,14 @@
       <c r="J11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
+        <v>14.65358386061431</v>
+      </c>
+      <c r="L11" s="3">
         <v>91.976522253201026</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2515,11 +2553,14 @@
       <c r="J12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
+        <v>41.537865572086197</v>
+      </c>
+      <c r="L12" s="3">
         <v>8.9602201041249465</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -2550,11 +2591,14 @@
       <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
+        <v>32.655912173566932</v>
+      </c>
+      <c r="L13" s="3">
         <v>13.234342987616399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -2585,11 +2629,14 @@
       <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
+        <v>31.255184551063081</v>
+      </c>
+      <c r="L14" s="3">
         <v>33.766968979990807</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2620,11 +2667,14 @@
       <c r="J15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
+        <v>42.765103857311757</v>
+      </c>
+      <c r="L15" s="3">
         <v>45.377368874546733</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2655,11 +2705,14 @@
       <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
+        <v>10.68770733054267</v>
+      </c>
+      <c r="L16" s="3">
         <v>84.765733586772569</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2690,11 +2743,14 @@
       <c r="J17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
+        <v>22.004852373240709</v>
+      </c>
+      <c r="L17" s="3">
         <v>11.670709868730039</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2725,11 +2781,14 @@
       <c r="J18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
+        <v>21.890088975731729</v>
+      </c>
+      <c r="L18" s="3">
         <v>9.0972455955177285</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2760,11 +2819,14 @@
       <c r="J19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
+        <v>30.232872953358129</v>
+      </c>
+      <c r="L19" s="3">
         <v>20.057963207013781</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -2795,11 +2857,14 @@
       <c r="J20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
+        <v>27.475506866107509</v>
+      </c>
+      <c r="L20" s="3">
         <v>44.821782668812368</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2830,11 +2895,14 @@
       <c r="J21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
+        <v>33.510497562272221</v>
+      </c>
+      <c r="L21" s="3">
         <v>88.408913167725188</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -2865,11 +2933,14 @@
       <c r="J22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
+        <v>43156.113700547859</v>
+      </c>
+      <c r="L22" s="3">
         <v>65.628906099040023</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2900,11 +2971,14 @@
       <c r="J23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
+        <v>18307.12466059166</v>
+      </c>
+      <c r="L23" s="3">
         <v>46.656591766144828</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -2935,11 +3009,14 @@
       <c r="J24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
+        <v>1220.938191624643</v>
+      </c>
+      <c r="L24" s="3">
         <v>177.0421789434254</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2970,11 +3047,14 @@
       <c r="J25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
+        <v>2191.9306792428779</v>
+      </c>
+      <c r="L25" s="3">
         <v>60.731858023568918</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -3005,11 +3085,14 @@
       <c r="J26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
+        <v>7.6331309486328163</v>
+      </c>
+      <c r="L26" s="3">
         <v>0.4428455678317883</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -3040,11 +3123,14 @@
       <c r="J27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
+        <v>13545.588171242911</v>
+      </c>
+      <c r="L27" s="3">
         <v>35.160486962301022</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -3075,11 +3161,14 @@
       <c r="J28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
+        <v>7292.052702562065</v>
+      </c>
+      <c r="L28" s="3">
         <v>111.9840824674388</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -3110,11 +3199,14 @@
       <c r="J29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
+        <v>1864.2844387333339</v>
+      </c>
+      <c r="L29" s="3">
         <v>142.78463148216741</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -3145,11 +3237,14 @@
       <c r="J30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
+        <v>214.2275054954838</v>
+      </c>
+      <c r="L30" s="3">
         <v>250.155936608953</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -3180,11 +3275,14 @@
       <c r="J31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
+        <v>21.090054806778149</v>
+      </c>
+      <c r="L31" s="3">
         <v>92.635204753483933</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -3215,11 +3313,14 @@
       <c r="J32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
+        <v>21876.198029462361</v>
+      </c>
+      <c r="L32" s="3">
         <v>45.650081149890561</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3250,11 +3351,14 @@
       <c r="J33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
+        <v>4435.9305595565602</v>
+      </c>
+      <c r="L33" s="3">
         <v>79.771126671615349</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3285,11 +3389,14 @@
       <c r="J34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
+        <v>764.15900412570511</v>
+      </c>
+      <c r="L34" s="3">
         <v>222.97919652461181</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -3320,11 +3427,14 @@
       <c r="J35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
+        <v>65.611466312360093</v>
+      </c>
+      <c r="L35" s="3">
         <v>64.993208148598313</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -3355,11 +3465,14 @@
       <c r="J36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
+        <v>0.40144585530532179</v>
+      </c>
+      <c r="L36" s="3">
         <v>1.5111809376752059</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
@@ -3390,11 +3503,14 @@
       <c r="J37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
+        <v>12567.66464946377</v>
+      </c>
+      <c r="L37" s="3">
         <v>48.987891534126852</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -3425,11 +3541,14 @@
       <c r="J38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
+        <v>6948.1381839144406</v>
+      </c>
+      <c r="L38" s="3">
         <v>84.221680344615422</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -3460,11 +3579,14 @@
       <c r="J39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
+        <v>1065.131914385415</v>
+      </c>
+      <c r="L39" s="3">
         <v>43.900687640671563</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -3495,11 +3617,14 @@
       <c r="J40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
+        <v>33.421795969821432</v>
+      </c>
+      <c r="L40" s="3">
         <v>3.3272352245103902</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -3530,11 +3655,14 @@
       <c r="J41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
+        <v>0.50982636932091407</v>
+      </c>
+      <c r="L41" s="3">
         <v>56.331458920061969</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -3565,11 +3693,14 @@
       <c r="J42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
+        <v>15.03398913571662</v>
+      </c>
+      <c r="L42" s="3">
         <v>66.64226638752946</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
@@ -3600,11 +3731,14 @@
       <c r="J43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
+        <v>3.5764494860081948</v>
+      </c>
+      <c r="L43" s="3">
         <v>72.081587895702086</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -3635,11 +3769,14 @@
       <c r="J44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
+        <v>1.5008765061686919</v>
+      </c>
+      <c r="L44" s="3">
         <v>52.154168763693342</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -3670,11 +3807,14 @@
       <c r="J45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
+        <v>1.052161583626094</v>
+      </c>
+      <c r="L45" s="3">
         <v>55.944516036403577</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>82</v>
       </c>
@@ -3705,11 +3845,14 @@
       <c r="J46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
+        <v>0.41417632105434649</v>
+      </c>
+      <c r="L46" s="3">
         <v>51.258246024478503</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
@@ -3740,11 +3883,14 @@
       <c r="J47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
+        <v>4.110189466343666</v>
+      </c>
+      <c r="L47" s="3">
         <v>68.453464394421758</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>82</v>
       </c>
@@ -3775,11 +3921,14 @@
       <c r="J48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
+        <v>3.3505723382463009</v>
+      </c>
+      <c r="L48" s="3">
         <v>58.021134319325533</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
@@ -3810,11 +3959,14 @@
       <c r="J49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
+        <v>1.212453753202952</v>
+      </c>
+      <c r="L49" s="3">
         <v>73.781182086479447</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>82</v>
       </c>
@@ -3845,11 +3997,14 @@
       <c r="J50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
+        <v>0.72392242586464228</v>
+      </c>
+      <c r="L50" s="3">
         <v>60.255290334883071</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>82</v>
       </c>
@@ -3880,11 +4035,14 @@
       <c r="J51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
+        <v>0.22585223918114819</v>
+      </c>
+      <c r="L51" s="3">
         <v>60.434006211863156</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
@@ -3915,11 +4073,14 @@
       <c r="J52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
+        <v>3.080287329253208</v>
+      </c>
+      <c r="L52" s="3">
         <v>34.517524602406922</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>82</v>
       </c>
@@ -3950,11 +4111,14 @@
       <c r="J53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
+        <v>1.112419115559742</v>
+      </c>
+      <c r="L53" s="3">
         <v>42.575013374305982</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
@@ -3985,11 +4149,14 @@
       <c r="J54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
+        <v>0.52698091116409429</v>
+      </c>
+      <c r="L54" s="3">
         <v>39.541949807670072</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>82</v>
       </c>
@@ -4020,11 +4187,14 @@
       <c r="J55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
+        <v>0.31681573015798142</v>
+      </c>
+      <c r="L55" s="3">
         <v>58.352340821634982</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>82</v>
       </c>
@@ -4055,11 +4225,14 @@
       <c r="J56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
+        <v>0.1645049331573992</v>
+      </c>
+      <c r="L56" s="3">
         <v>60.620380817543612</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -4090,11 +4263,14 @@
       <c r="J57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
+        <v>2.0806345255176861</v>
+      </c>
+      <c r="L57" s="3">
         <v>60.386819812741578</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -4125,11 +4301,14 @@
       <c r="J58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
+        <v>0.74748206746875778</v>
+      </c>
+      <c r="L58" s="3">
         <v>38.548715127912978</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>82</v>
       </c>
@@ -4160,11 +4339,14 @@
       <c r="J59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
+        <v>0.3246402555006534</v>
+      </c>
+      <c r="L59" s="3">
         <v>49.659257113867653</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
@@ -4195,11 +4377,14 @@
       <c r="J60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
+        <v>0.27037849405084091</v>
+      </c>
+      <c r="L60" s="3">
         <v>30.984941167274538</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>82</v>
       </c>
@@ -4230,11 +4415,14 @@
       <c r="J61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
+        <v>8.7681230891372905E-2</v>
+      </c>
+      <c r="L61" s="3">
         <v>57.686428349598202</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -4265,11 +4453,14 @@
       <c r="J62" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
+        <v>3.9705897861077699</v>
+      </c>
+      <c r="L62" s="3">
         <v>67.500580668701332</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
@@ -4300,11 +4491,14 @@
       <c r="J63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
+        <v>0.40125357381134708</v>
+      </c>
+      <c r="L63" s="3">
         <v>141.40872599747979</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>123</v>
       </c>
@@ -4335,11 +4529,14 @@
       <c r="J64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
+        <v>0.1268597682306849</v>
+      </c>
+      <c r="L64" s="3">
         <v>229.00840938229101</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>123</v>
       </c>
@@ -4370,11 +4567,14 @@
       <c r="J65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
+        <v>1.0853195948892671E-2</v>
+      </c>
+      <c r="L65" s="3">
         <v>127.5686340819678</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>123</v>
       </c>
@@ -4405,11 +4605,14 @@
       <c r="J66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
+        <v>2.6141862840822799E-3</v>
+      </c>
+      <c r="L66" s="3">
         <v>173.98758803968411</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>123</v>
       </c>
@@ -4440,11 +4643,14 @@
       <c r="J67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
+        <v>0.46961594638579368</v>
+      </c>
+      <c r="L67" s="3">
         <v>90.279300057384063</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>123</v>
       </c>
@@ -4475,11 +4681,14 @@
       <c r="J68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
+        <v>0.45903061276337981</v>
+      </c>
+      <c r="L68" s="3">
         <v>105.0816958688595</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>123</v>
       </c>
@@ -4510,11 +4719,14 @@
       <c r="J69" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
+        <v>3.0864266948056829E-2</v>
+      </c>
+      <c r="L69" s="3">
         <v>136.691017278489</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>123</v>
       </c>
@@ -4545,11 +4757,14 @@
       <c r="J70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
+        <v>2.8687594420457709E-3</v>
+      </c>
+      <c r="L70" s="3">
         <v>193.3288845178617</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>123</v>
       </c>
@@ -4580,11 +4795,14 @@
       <c r="J71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
+        <v>1.829376035407259E-4</v>
+      </c>
+      <c r="L71" s="3">
         <v>59.920695782615283</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>123</v>
       </c>
@@ -4615,11 +4833,14 @@
       <c r="J72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
+        <v>0.35387192315875771</v>
+      </c>
+      <c r="L72" s="3">
         <v>125.93558600212189</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>123</v>
       </c>
@@ -4650,11 +4871,14 @@
       <c r="J73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
+        <v>1.8677471336283679E-2</v>
+      </c>
+      <c r="L73" s="3">
         <v>96.804949373558415</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>123</v>
       </c>
@@ -4685,11 +4909,14 @@
       <c r="J74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
+        <v>2.666996876018951E-3</v>
+      </c>
+      <c r="L74" s="3">
         <v>95.182806189421157</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
@@ -4720,11 +4947,14 @@
       <c r="J75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
+        <v>3.4483777954378208E-4</v>
+      </c>
+      <c r="L75" s="3">
         <v>103.81627274122</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>123</v>
       </c>
@@ -4755,11 +4985,14 @@
       <c r="J76" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
+        <v>4.8706826530010298E-5</v>
+      </c>
+      <c r="L76" s="3">
         <v>73.368449733607363</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>123</v>
       </c>
@@ -4790,11 +5023,14 @@
       <c r="J77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
+        <v>7.6913127084115587E-2</v>
+      </c>
+      <c r="L77" s="3">
         <v>99.613696613974085</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>123</v>
       </c>
@@ -4825,11 +5061,14 @@
       <c r="J78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
+        <v>1.422386402267159E-2</v>
+      </c>
+      <c r="L78" s="3">
         <v>106.7348331162693</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>123</v>
       </c>
@@ -4860,11 +5099,14 @@
       <c r="J79" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
+        <v>1.343189884618407E-3</v>
+      </c>
+      <c r="L79" s="3">
         <v>115.7577301410405</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>123</v>
       </c>
@@ -4895,11 +5137,14 @@
       <c r="J80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
+        <v>5.6969163455956238E-5</v>
+      </c>
+      <c r="L80" s="3">
         <v>188.8914903279728</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>123</v>
       </c>
@@ -4930,11 +5175,14 @@
       <c r="J81" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
+        <v>6.9731331627029128E-6</v>
+      </c>
+      <c r="L81" s="3">
         <v>208.51879685609671</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>164</v>
       </c>
@@ -4965,11 +5213,14 @@
       <c r="J82" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
+        <v>9320.329304380246</v>
+      </c>
+      <c r="L82" s="3">
         <v>14.555723690865239</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
@@ -5000,11 +5251,14 @@
       <c r="J83" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
+        <v>6148.9021039875597</v>
+      </c>
+      <c r="L83" s="3">
         <v>57.81821498131896</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>164</v>
       </c>
@@ -5035,11 +5289,14 @@
       <c r="J84" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
+        <v>1460.127950050123</v>
+      </c>
+      <c r="L84" s="3">
         <v>60.219079066809392</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>164</v>
       </c>
@@ -5070,11 +5327,14 @@
       <c r="J85" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
+        <v>1480.890348707466</v>
+      </c>
+      <c r="L85" s="3">
         <v>223.9835205876816</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>164</v>
       </c>
@@ -5105,11 +5365,14 @@
       <c r="J86" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
+        <v>182.64884888970221</v>
+      </c>
+      <c r="L86" s="3">
         <v>47.389766699140708</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>164</v>
       </c>
@@ -5140,11 +5403,14 @@
       <c r="J87" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
+        <v>8244.6726042141072</v>
+      </c>
+      <c r="L87" s="3">
         <v>43.852185751720249</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>164</v>
       </c>
@@ -5175,11 +5441,14 @@
       <c r="J88" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
+        <v>5346.2868032346923</v>
+      </c>
+      <c r="L88" s="3">
         <v>65.510271048250544</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>164</v>
       </c>
@@ -5210,11 +5479,14 @@
       <c r="J89" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
+        <v>3384.7809613421668</v>
+      </c>
+      <c r="L89" s="3">
         <v>68.184927004685818</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>164</v>
       </c>
@@ -5245,11 +5517,14 @@
       <c r="J90" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
+        <v>4.7121687909994101</v>
+      </c>
+      <c r="L90" s="3">
         <v>245.33406238005631</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>164</v>
       </c>
@@ -5280,11 +5555,14 @@
       <c r="J91" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
+        <v>1.146204097077786</v>
+      </c>
+      <c r="L91" s="3">
         <v>131.90865918172091</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>164</v>
       </c>
@@ -5315,11 +5593,14 @@
       <c r="J92" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
+        <v>2329.6951618177459</v>
+      </c>
+      <c r="L92" s="3">
         <v>33.781314477364631</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>164</v>
       </c>
@@ -5350,11 +5631,14 @@
       <c r="J93" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
+        <v>2810.228130773809</v>
+      </c>
+      <c r="L93" s="3">
         <v>63.25503456446274</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>164</v>
       </c>
@@ -5385,11 +5669,14 @@
       <c r="J94" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
+        <v>187.4777803568839</v>
+      </c>
+      <c r="L94" s="3">
         <v>125.35811322151589</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>164</v>
       </c>
@@ -5420,11 +5707,14 @@
       <c r="J95" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
+        <v>7.6736299463206041</v>
+      </c>
+      <c r="L95" s="3">
         <v>161.24131703584371</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>164</v>
       </c>
@@ -5455,11 +5745,14 @@
       <c r="J96" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
+        <v>2.792049072939677</v>
+      </c>
+      <c r="L96" s="3">
         <v>23.920561896851559</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>164</v>
       </c>
@@ -5490,11 +5783,14 @@
       <c r="J97" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
+        <v>9264.3520618964103</v>
+      </c>
+      <c r="L97" s="3">
         <v>36.559423325763802</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>164</v>
       </c>
@@ -5525,11 +5821,14 @@
       <c r="J98" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
+        <v>2406.0022795650889</v>
+      </c>
+      <c r="L98" s="3">
         <v>40.571671407344198</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>164</v>
       </c>
@@ -5560,11 +5859,14 @@
       <c r="J99" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
+        <v>216.26421694633561</v>
+      </c>
+      <c r="L99" s="3">
         <v>109.0263460682249</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>164</v>
       </c>
@@ -5595,11 +5897,14 @@
       <c r="J100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
+        <v>39.155394806557027</v>
+      </c>
+      <c r="L100" s="3">
         <v>132.81371858467881</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>164</v>
       </c>
@@ -5630,11 +5935,14 @@
       <c r="J101" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
+        <v>1.019180560142634</v>
+      </c>
+      <c r="L101" s="3">
         <v>41.116754088338489</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>205</v>
       </c>
@@ -5665,11 +5973,14 @@
       <c r="J102" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
+        <v>558.07881687430245</v>
+      </c>
+      <c r="L102" s="3">
         <v>-18.82331413062732</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>205</v>
       </c>
@@ -5700,11 +6011,14 @@
       <c r="J103" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
+        <v>393.71317329142119</v>
+      </c>
+      <c r="L103" s="3">
         <v>-8.774336001675783</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>205</v>
       </c>
@@ -5735,11 +6049,14 @@
       <c r="J104" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
+        <v>356.0653940314325</v>
+      </c>
+      <c r="L104" s="3">
         <v>-10.987053772512731</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>205</v>
       </c>
@@ -5770,11 +6087,14 @@
       <c r="J105" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
+        <v>486.43247448693478</v>
+      </c>
+      <c r="L105" s="3">
         <v>-7.1196356504599834</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>205</v>
       </c>
@@ -5805,11 +6125,14 @@
       <c r="J106" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
+        <v>455.83326641626428</v>
+      </c>
+      <c r="L106" s="3">
         <v>-7.2333503329195086</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>205</v>
       </c>
@@ -5840,11 +6163,14 @@
       <c r="J107" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
+        <v>388.20254112903842</v>
+      </c>
+      <c r="L107" s="3">
         <v>-14.47783171104898</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>205</v>
       </c>
@@ -5875,11 +6201,14 @@
       <c r="J108" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
+        <v>194.92582317245521</v>
+      </c>
+      <c r="L108" s="3">
         <v>-8.5210057402776744</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>205</v>
       </c>
@@ -5910,11 +6239,14 @@
       <c r="J109" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
+        <v>600.06926219121817</v>
+      </c>
+      <c r="L109" s="3">
         <v>-10.75301290609565</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>205</v>
       </c>
@@ -5945,11 +6277,14 @@
       <c r="J110" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
+        <v>585.78530639544317</v>
+      </c>
+      <c r="L110" s="3">
         <v>-6.3901110242008548</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>205</v>
       </c>
@@ -5980,11 +6315,14 @@
       <c r="J111" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
+        <v>971.23554455984856</v>
+      </c>
+      <c r="L111" s="3">
         <v>-16.29528794024997</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>205</v>
       </c>
@@ -6015,11 +6353,14 @@
       <c r="J112" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
+        <v>470.58137410574471</v>
+      </c>
+      <c r="L112" s="3">
         <v>-20.005271098716278</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>205</v>
       </c>
@@ -6050,11 +6391,14 @@
       <c r="J113" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
+        <v>386.57952634660899</v>
+      </c>
+      <c r="L113" s="3">
         <v>-15.559552684603229</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>205</v>
       </c>
@@ -6085,11 +6429,14 @@
       <c r="J114" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
+        <v>472.63444816877848</v>
+      </c>
+      <c r="L114" s="3">
         <v>-15.790938794280351</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>205</v>
       </c>
@@ -6120,11 +6467,14 @@
       <c r="J115" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
+        <v>412.8620044742662</v>
+      </c>
+      <c r="L115" s="3">
         <v>-15.896279622234029</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>205</v>
       </c>
@@ -6155,11 +6505,14 @@
       <c r="J116" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
+        <v>557.21956762287891</v>
+      </c>
+      <c r="L116" s="3">
         <v>-19.830235938537161</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>205</v>
       </c>
@@ -6190,11 +6543,14 @@
       <c r="J117" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
+        <v>379.74794796607972</v>
+      </c>
+      <c r="L117" s="3">
         <v>-12.12067329942743</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>205</v>
       </c>
@@ -6225,11 +6581,14 @@
       <c r="J118" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
+        <v>518.17527528029291</v>
+      </c>
+      <c r="L118" s="3">
         <v>-9.784528007695144</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>205</v>
       </c>
@@ -6260,11 +6619,14 @@
       <c r="J119" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
+        <v>842.63457888295113</v>
+      </c>
+      <c r="L119" s="3">
         <v>-15.658488707106761</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>205</v>
       </c>
@@ -6295,11 +6657,14 @@
       <c r="J120" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
+        <v>563.61716332750018</v>
+      </c>
+      <c r="L120" s="3">
         <v>-15.79744080660552</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>205</v>
       </c>
@@ -6330,11 +6695,14 @@
       <c r="J121" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
+        <v>699.20540848660414</v>
+      </c>
+      <c r="L121" s="3">
         <v>-19.724283589924099</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>246</v>
       </c>
@@ -6365,11 +6733,14 @@
       <c r="J122" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
+        <v>107.4923226695055</v>
+      </c>
+      <c r="L122" s="3">
         <v>15.52537258510328</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>246</v>
       </c>
@@ -6400,11 +6771,14 @@
       <c r="J123" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="3">
+        <v>49.135382636190592</v>
+      </c>
+      <c r="L123" s="3">
         <v>37.690247043028599</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>246</v>
       </c>
@@ -6435,11 +6809,14 @@
       <c r="J124" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
+        <v>28.942203881635649</v>
+      </c>
+      <c r="L124" s="3">
         <v>124.3307243270291</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>246</v>
       </c>
@@ -6470,11 +6847,14 @@
       <c r="J125" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
+        <v>11.5665236333676</v>
+      </c>
+      <c r="L125" s="3">
         <v>114.9728914583838</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>246</v>
       </c>
@@ -6505,11 +6885,14 @@
       <c r="J126" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="3">
+        <v>0.1087316008887392</v>
+      </c>
+      <c r="L126" s="3">
         <v>130.46211964684011</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>246</v>
       </c>
@@ -6540,11 +6923,14 @@
       <c r="J127" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
+        <v>55.060766184151532</v>
+      </c>
+      <c r="L127" s="3">
         <v>44.863664384985761</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>246</v>
       </c>
@@ -6575,11 +6961,14 @@
       <c r="J128" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="3">
+        <v>50.774066309494373</v>
+      </c>
+      <c r="L128" s="3">
         <v>46.241889096108281</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>246</v>
       </c>
@@ -6610,11 +6999,14 @@
       <c r="J129" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
+        <v>4.9285367102535966</v>
+      </c>
+      <c r="L129" s="3">
         <v>62.769416507965161</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>246</v>
       </c>
@@ -6645,11 +7037,14 @@
       <c r="J130" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="3">
+        <v>4.656494083538548</v>
+      </c>
+      <c r="L130" s="3">
         <v>45.679984349267222</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>246</v>
       </c>
@@ -6680,11 +7075,14 @@
       <c r="J131" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="3">
+        <v>0.26768109554011599</v>
+      </c>
+      <c r="L131" s="3">
         <v>162.15722351126101</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>246</v>
       </c>
@@ -6715,11 +7113,14 @@
       <c r="J132" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="3">
+        <v>82.148733172995392</v>
+      </c>
+      <c r="L132" s="3">
         <v>16.935895662242931</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>246</v>
       </c>
@@ -6750,11 +7151,14 @@
       <c r="J133" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="3">
+        <v>56.18059445681277</v>
+      </c>
+      <c r="L133" s="3">
         <v>60.20370840576151</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>246</v>
       </c>
@@ -6785,11 +7189,14 @@
       <c r="J134" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="3">
+        <v>2.6960429512016288</v>
+      </c>
+      <c r="L134" s="3">
         <v>117.2886253951896</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>246</v>
       </c>
@@ -6820,11 +7227,14 @@
       <c r="J135" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
+        <v>1.7137491247574479</v>
+      </c>
+      <c r="L135" s="3">
         <v>147.8562845538504</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>246</v>
       </c>
@@ -6855,11 +7265,14 @@
       <c r="J136" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="3">
+        <v>0.20495014965508809</v>
+      </c>
+      <c r="L136" s="3">
         <v>219.47883462777409</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -6890,11 +7303,14 @@
       <c r="J137" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="3">
+        <v>55.282735248594243</v>
+      </c>
+      <c r="L137" s="3">
         <v>26.494798130841339</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>246</v>
       </c>
@@ -6925,11 +7341,14 @@
       <c r="J138" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="3">
+        <v>48.30130143856222</v>
+      </c>
+      <c r="L138" s="3">
         <v>59.768590476642743</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>246</v>
       </c>
@@ -6960,11 +7379,14 @@
       <c r="J139" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="3">
+        <v>21.381124163446401</v>
+      </c>
+      <c r="L139" s="3">
         <v>191.0685283190551</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>246</v>
       </c>
@@ -6995,11 +7417,14 @@
       <c r="J140" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="3">
+        <v>3.6057601484412873E-2</v>
+      </c>
+      <c r="L140" s="3">
         <v>251.3249790633331</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>246</v>
       </c>
@@ -7030,11 +7455,14 @@
       <c r="J141" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="3">
+        <v>3.4956018338370413E-2</v>
+      </c>
+      <c r="L141" s="3">
         <v>231.5601572597329</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>287</v>
       </c>
@@ -7065,11 +7493,14 @@
       <c r="J142" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="3">
+        <v>0.84701252099519597</v>
+      </c>
+      <c r="L142" s="3">
         <v>4.7138097751241483</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>287</v>
       </c>
@@ -7100,11 +7531,14 @@
       <c r="J143" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="3">
+        <v>2.9142674885820199</v>
+      </c>
+      <c r="L143" s="3">
         <v>29.495492674183481</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>287</v>
       </c>
@@ -7135,11 +7569,14 @@
       <c r="J144" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="3">
+        <v>6.8402657871502273</v>
+      </c>
+      <c r="L144" s="3">
         <v>68.188513187293097</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>287</v>
       </c>
@@ -7170,11 +7607,14 @@
       <c r="J145" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="3">
+        <v>5.8034749350235399</v>
+      </c>
+      <c r="L145" s="3">
         <v>153.9935174689322</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>287</v>
       </c>
@@ -7205,11 +7645,14 @@
       <c r="J146" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="3">
+        <v>6.1444167331778168</v>
+      </c>
+      <c r="L146" s="3">
         <v>171.75081116783389</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>287</v>
       </c>
@@ -7240,11 +7683,14 @@
       <c r="J147" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="3">
+        <v>1.2055790265678339</v>
+      </c>
+      <c r="L147" s="3">
         <v>7.7338102206322619</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>287</v>
       </c>
@@ -7275,11 +7721,14 @@
       <c r="J148" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="3">
+        <v>4.0078613978343771</v>
+      </c>
+      <c r="L148" s="3">
         <v>23.585100820330961</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>287</v>
       </c>
@@ -7310,11 +7759,14 @@
       <c r="J149" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="3">
+        <v>2.24861607369595</v>
+      </c>
+      <c r="L149" s="3">
         <v>85.54593363967588</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>287</v>
       </c>
@@ -7345,11 +7797,14 @@
       <c r="J150" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="3">
+        <v>2.6499372042538631</v>
+      </c>
+      <c r="L150" s="3">
         <v>30.333316767302179</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>287</v>
       </c>
@@ -7380,11 +7835,14 @@
       <c r="J151" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="3">
+        <v>8.1448556395061136</v>
+      </c>
+      <c r="L151" s="3">
         <v>190.55920093041729</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>287</v>
       </c>
@@ -7415,11 +7873,14 @@
       <c r="J152" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="3">
+        <v>2.4233830734259869</v>
+      </c>
+      <c r="L152" s="3">
         <v>11.7770864995423</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>287</v>
       </c>
@@ -7450,11 +7911,14 @@
       <c r="J153" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="3">
+        <v>5.4266869174021037</v>
+      </c>
+      <c r="L153" s="3">
         <v>45.960410002244778</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>287</v>
       </c>
@@ -7485,11 +7949,14 @@
       <c r="J154" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="3">
+        <v>5.5208135516797858</v>
+      </c>
+      <c r="L154" s="3">
         <v>99.042779931285708</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>287</v>
       </c>
@@ -7520,11 +7987,14 @@
       <c r="J155" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="3">
+        <v>0.7265099093332672</v>
+      </c>
+      <c r="L155" s="3">
         <v>109.1122602764043</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>287</v>
       </c>
@@ -7555,11 +8025,14 @@
       <c r="J156" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="3">
+        <v>0.18885028354884731</v>
+      </c>
+      <c r="L156" s="3">
         <v>290.48021282010001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>287</v>
       </c>
@@ -7590,11 +8063,14 @@
       <c r="J157" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="3">
+        <v>2.2722990738231088</v>
+      </c>
+      <c r="L157" s="3">
         <v>16.01612781895426</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>287</v>
       </c>
@@ -7625,11 +8101,14 @@
       <c r="J158" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="3">
+        <v>4.8700956475189461</v>
+      </c>
+      <c r="L158" s="3">
         <v>40.016546368806267</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>287</v>
       </c>
@@ -7660,11 +8139,14 @@
       <c r="J159" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="3">
+        <v>5.5033818234152916</v>
+      </c>
+      <c r="L159" s="3">
         <v>64.194034813938813</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>287</v>
       </c>
@@ -7695,11 +8177,14 @@
       <c r="J160" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="3">
+        <v>0.88827793261741694</v>
+      </c>
+      <c r="L160" s="3">
         <v>214.17373604719251</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>287</v>
       </c>
@@ -7730,7 +8215,10 @@
       <c r="J161" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="3">
+        <v>4.0675865833725</v>
+      </c>
+      <c r="L161" s="3">
         <v>147.9397506103065</v>
       </c>
     </row>
